--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.095220718531</v>
+        <v>111.3936496666667</v>
       </c>
       <c r="H2">
-        <v>22.095220718531</v>
+        <v>334.180949</v>
       </c>
       <c r="I2">
-        <v>0.3584502448480743</v>
+        <v>0.728503147516836</v>
       </c>
       <c r="J2">
-        <v>0.3584502448480743</v>
+        <v>0.728503147516836</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.56822848780538</v>
+        <v>10.20338166666667</v>
       </c>
       <c r="N2">
-        <v>6.56822848780538</v>
+        <v>30.610145</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9872556892395703</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9872556892395703</v>
       </c>
       <c r="Q2">
-        <v>145.126458167803</v>
+        <v>1136.591922791956</v>
       </c>
       <c r="R2">
-        <v>145.126458167803</v>
+        <v>10229.32730512761</v>
       </c>
       <c r="S2">
-        <v>0.3584502448480743</v>
+        <v>0.7192188770149303</v>
       </c>
       <c r="T2">
-        <v>0.3584502448480743</v>
+        <v>0.7192188770149303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.4337113016622</v>
+        <v>111.3936496666667</v>
       </c>
       <c r="H3">
-        <v>16.4337113016622</v>
+        <v>334.180949</v>
       </c>
       <c r="I3">
-        <v>0.2666037110415895</v>
+        <v>0.728503147516836</v>
       </c>
       <c r="J3">
-        <v>0.2666037110415895</v>
+        <v>0.728503147516836</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>6.56822848780538</v>
+        <v>0.1317136666666667</v>
       </c>
       <c r="N3">
-        <v>6.56822848780538</v>
+        <v>0.395141</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01274431076042969</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01274431076042969</v>
       </c>
       <c r="Q3">
-        <v>107.9403707319469</v>
+        <v>14.67206604097878</v>
       </c>
       <c r="R3">
-        <v>107.9403707319469</v>
+        <v>132.048594368809</v>
       </c>
       <c r="S3">
-        <v>0.2666037110415895</v>
+        <v>0.00928427050190571</v>
       </c>
       <c r="T3">
-        <v>0.2666037110415895</v>
+        <v>0.00928427050190571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.1120377827312</v>
+        <v>17.89779133333333</v>
       </c>
       <c r="H4">
-        <v>23.1120377827312</v>
+        <v>53.693374</v>
       </c>
       <c r="I4">
-        <v>0.3749460441103363</v>
+        <v>0.1170497363085729</v>
       </c>
       <c r="J4">
-        <v>0.3749460441103363</v>
+        <v>0.1170497363085729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.56822848780538</v>
+        <v>10.20338166666667</v>
       </c>
       <c r="N4">
-        <v>6.56822848780538</v>
+        <v>30.610145</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9872556892395703</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9872556892395703</v>
       </c>
       <c r="Q4">
-        <v>151.8051449757693</v>
+        <v>182.6179959643589</v>
       </c>
       <c r="R4">
-        <v>151.8051449757693</v>
+        <v>1643.56196367923</v>
       </c>
       <c r="S4">
-        <v>0.3749460441103363</v>
+        <v>0.1155580180946301</v>
       </c>
       <c r="T4">
-        <v>0.3749460441103363</v>
+        <v>0.1155580180946301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>17.89779133333333</v>
+      </c>
+      <c r="H5">
+        <v>53.693374</v>
+      </c>
+      <c r="I5">
+        <v>0.1170497363085729</v>
+      </c>
+      <c r="J5">
+        <v>0.1170497363085729</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1317136666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.395141</v>
+      </c>
+      <c r="O5">
+        <v>0.01274431076042969</v>
+      </c>
+      <c r="P5">
+        <v>0.01274431076042969</v>
+      </c>
+      <c r="Q5">
+        <v>2.357383721748223</v>
+      </c>
+      <c r="R5">
+        <v>21.216453495734</v>
+      </c>
+      <c r="S5">
+        <v>0.001491718213942803</v>
+      </c>
+      <c r="T5">
+        <v>0.001491718213942803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>23.616134</v>
+      </c>
+      <c r="H6">
+        <v>70.84840200000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1544471161745911</v>
+      </c>
+      <c r="J6">
+        <v>0.1544471161745911</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10.20338166666667</v>
+      </c>
+      <c r="N6">
+        <v>30.610145</v>
+      </c>
+      <c r="O6">
+        <v>0.9872556892395703</v>
+      </c>
+      <c r="P6">
+        <v>0.9872556892395703</v>
+      </c>
+      <c r="Q6">
+        <v>240.9644286931434</v>
+      </c>
+      <c r="R6">
+        <v>2168.67985823829</v>
+      </c>
+      <c r="S6">
+        <v>0.1524787941300099</v>
+      </c>
+      <c r="T6">
+        <v>0.1524787941300099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>23.616134</v>
+      </c>
+      <c r="H7">
+        <v>70.84840200000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1544471161745911</v>
+      </c>
+      <c r="J7">
+        <v>0.1544471161745911</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1317136666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.395141</v>
+      </c>
+      <c r="O7">
+        <v>0.01274431076042969</v>
+      </c>
+      <c r="P7">
+        <v>0.01274431076042969</v>
+      </c>
+      <c r="Q7">
+        <v>3.110567601631334</v>
+      </c>
+      <c r="R7">
+        <v>27.995108414682</v>
+      </c>
+      <c r="S7">
+        <v>0.001968322044581176</v>
+      </c>
+      <c r="T7">
+        <v>0.001968322044581176</v>
       </c>
     </row>
   </sheetData>
